--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.5600482473826</v>
+        <v>444.8763612742754</v>
       </c>
       <c r="AB2" t="n">
-        <v>523.4355353702543</v>
+        <v>608.6994640553507</v>
       </c>
       <c r="AC2" t="n">
-        <v>473.4795825209044</v>
+        <v>550.6060415209708</v>
       </c>
       <c r="AD2" t="n">
-        <v>382560.0482473826</v>
+        <v>444876.3612742754</v>
       </c>
       <c r="AE2" t="n">
-        <v>523435.5353702544</v>
+        <v>608699.4640553507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.796234108234212e-06</v>
+        <v>3.036622882282641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28086419753086</v>
       </c>
       <c r="AH2" t="n">
-        <v>473479.5825209044</v>
+        <v>550606.0415209709</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.3405667979229</v>
+        <v>280.9132522702286</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.4763224533582</v>
+        <v>384.3579047741627</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.2224418544122</v>
+        <v>347.6753257922233</v>
       </c>
       <c r="AD3" t="n">
-        <v>239340.5667979229</v>
+        <v>280913.2522702286</v>
       </c>
       <c r="AE3" t="n">
-        <v>327476.3224533582</v>
+        <v>384357.9047741627</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.494886302311743e-06</v>
+        <v>4.217729080838455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.121141975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>296222.4418544122</v>
+        <v>347675.3257922233</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.3392035558921</v>
+        <v>242.8265481736226</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.481180763813</v>
+        <v>332.2459959622325</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.189643512061</v>
+        <v>300.5369044178799</v>
       </c>
       <c r="AD4" t="n">
-        <v>201339.203555892</v>
+        <v>242826.5481736226</v>
       </c>
       <c r="AE4" t="n">
-        <v>275481.180763813</v>
+        <v>332245.9959622325</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76609128842137e-06</v>
+        <v>4.676214566017905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>249189.643512061</v>
+        <v>300536.9044178799</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.9363119520534</v>
+        <v>217.5089079158045</v>
       </c>
       <c r="AB5" t="n">
-        <v>240.7238237749756</v>
+        <v>297.6052836260443</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.7494798919703</v>
+        <v>269.2022530485014</v>
       </c>
       <c r="AD5" t="n">
-        <v>175936.3119520535</v>
+        <v>217508.9079158045</v>
       </c>
       <c r="AE5" t="n">
-        <v>240723.8237749756</v>
+        <v>297605.2836260443</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.908311099107828e-06</v>
+        <v>4.916644212390088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.967592592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>217749.4798919703</v>
+        <v>269202.2530485014</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.9995011242627</v>
+        <v>215.5720970880138</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.0737937543304</v>
+        <v>294.955253605399</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.3523650171541</v>
+        <v>266.8051381736852</v>
       </c>
       <c r="AD6" t="n">
-        <v>173999.5011242627</v>
+        <v>215572.0970880138</v>
       </c>
       <c r="AE6" t="n">
-        <v>238073.7937543304</v>
+        <v>294955.253605399</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.92863571754788e-06</v>
+        <v>4.951003988293351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.917438271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>215352.3650171541</v>
+        <v>266805.1381736852</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.0285656749488</v>
+        <v>338.4814048942495</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.0933904799739</v>
+        <v>463.1251909219968</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.4816704061119</v>
+        <v>418.9251727006885</v>
       </c>
       <c r="AD2" t="n">
-        <v>288028.5656749488</v>
+        <v>338481.4048942495</v>
       </c>
       <c r="AE2" t="n">
-        <v>394093.3904799739</v>
+        <v>463125.1909219968</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125915045602515e-06</v>
+        <v>3.681640558647447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>356481.6704061119</v>
+        <v>418925.1727006885</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.1843448138274</v>
+        <v>234.5466161892674</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.6915873828347</v>
+        <v>320.9170277364245</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.3343551835795</v>
+        <v>290.2891570192327</v>
       </c>
       <c r="AD3" t="n">
-        <v>194184.3448138274</v>
+        <v>234546.6161892673</v>
       </c>
       <c r="AE3" t="n">
-        <v>265691.5873828347</v>
+        <v>320917.0277364245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.780368729204045e-06</v>
+        <v>4.815017562722765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.538580246913579</v>
       </c>
       <c r="AH3" t="n">
-        <v>240334.3551835795</v>
+        <v>290289.1570192327</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.1518952204217</v>
+        <v>203.4288257412902</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.2316207941055</v>
+        <v>278.3402940254977</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.9267082131277</v>
+        <v>251.7758870168421</v>
       </c>
       <c r="AD4" t="n">
-        <v>163151.8952204217</v>
+        <v>203428.8257412901</v>
       </c>
       <c r="AE4" t="n">
-        <v>223231.6207941055</v>
+        <v>278340.2940254977</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.012138562696003e-06</v>
+        <v>5.216394476169992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.959876543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>201926.7082131277</v>
+        <v>251775.8870168421</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.4163206451536</v>
+        <v>202.693251166022</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.2251752089641</v>
+        <v>277.3338484403564</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.0163163820768</v>
+        <v>250.8654951857911</v>
       </c>
       <c r="AD5" t="n">
-        <v>162416.3206451536</v>
+        <v>202693.251166022</v>
       </c>
       <c r="AE5" t="n">
-        <v>222225.1752089642</v>
+        <v>277333.8484403564</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.028383096267052e-06</v>
+        <v>5.244526613329092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>201016.3163820768</v>
+        <v>250865.4951857911</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1607833226683</v>
+        <v>182.4516535729371</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.9836319006577</v>
+        <v>249.6384016172502</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.8974747509059</v>
+        <v>225.8132629366696</v>
       </c>
       <c r="AD2" t="n">
-        <v>146160.7833226683</v>
+        <v>182451.6535729371</v>
       </c>
       <c r="AE2" t="n">
-        <v>199983.6319006577</v>
+        <v>249638.4016172502</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178387532143096e-06</v>
+        <v>6.014193167136387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.357253086419754</v>
       </c>
       <c r="AH2" t="n">
-        <v>180897.4747509059</v>
+        <v>225813.2629366696</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.2262423734435</v>
+        <v>182.5171126237122</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.0731958617777</v>
+        <v>249.7279655783702</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.9784908532804</v>
+        <v>225.8942790390442</v>
       </c>
       <c r="AD3" t="n">
-        <v>146226.2423734434</v>
+        <v>182517.1126237122</v>
       </c>
       <c r="AE3" t="n">
-        <v>200073.1958617777</v>
+        <v>249727.9655783702</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.185298651748351e-06</v>
+        <v>6.027270492631419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.341820987654322</v>
       </c>
       <c r="AH3" t="n">
-        <v>180978.4908532804</v>
+        <v>225894.2790390442</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.3880417078591</v>
+        <v>228.2893134777278</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.4973179921788</v>
+        <v>312.3555101137877</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.6358195733632</v>
+        <v>282.5447386223321</v>
       </c>
       <c r="AD2" t="n">
-        <v>190388.0417078591</v>
+        <v>228289.3134777278</v>
       </c>
       <c r="AE2" t="n">
-        <v>260497.3179921787</v>
+        <v>312355.5101137877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787273953016642e-06</v>
+        <v>5.07780781678857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.028549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>235635.8195733632</v>
+        <v>282544.7386223322</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.7920294120374</v>
+        <v>183.2820112575054</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.7932835838296</v>
+        <v>250.7745336340716</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.5800298523898</v>
+        <v>226.8409641083773</v>
       </c>
       <c r="AD3" t="n">
-        <v>154792.0294120373</v>
+        <v>183282.0112575054</v>
       </c>
       <c r="AE3" t="n">
-        <v>211793.2835838296</v>
+        <v>250774.5336340716</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160020154478136e-06</v>
+        <v>5.756870444777086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.079475308641976</v>
       </c>
       <c r="AH3" t="n">
-        <v>191580.0298523898</v>
+        <v>226840.9641083773</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.6888010495105</v>
+        <v>174.8994009177793</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.128380230821</v>
+        <v>239.3050763525961</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.8873558720117</v>
+        <v>216.4661357323577</v>
       </c>
       <c r="AD2" t="n">
-        <v>139688.8010495105</v>
+        <v>174899.4009177793</v>
       </c>
       <c r="AE2" t="n">
-        <v>191128.380230821</v>
+        <v>239305.0763525961</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.145315450644168e-06</v>
+        <v>6.163804861153404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.723765432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>172887.3558720117</v>
+        <v>216466.1357323577</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.7091831372137</v>
+        <v>366.5024642412735</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.9672324745003</v>
+        <v>501.4648405224867</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.7408860769518</v>
+        <v>453.6057399533437</v>
       </c>
       <c r="AD2" t="n">
-        <v>315709.1831372137</v>
+        <v>366502.4642412735</v>
       </c>
       <c r="AE2" t="n">
-        <v>431967.2324745003</v>
+        <v>501464.8405224867</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.034616644643496e-06</v>
+        <v>3.500519701147169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>390740.8860769517</v>
+        <v>453605.7399533438</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.4606606391298</v>
+        <v>243.1634865991936</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.0156078202928</v>
+        <v>332.7070099807726</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.5776270038528</v>
+        <v>300.953919905528</v>
       </c>
       <c r="AD3" t="n">
-        <v>202460.6606391298</v>
+        <v>243163.4865991936</v>
       </c>
       <c r="AE3" t="n">
-        <v>277015.6078202928</v>
+        <v>332707.0099807726</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7067739970934e-06</v>
+        <v>4.656953794378566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>250577.6270038528</v>
+        <v>300953.919905528</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.445824517904</v>
+        <v>209.9730334965028</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.525693696337</v>
+        <v>287.2943677862453</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.0930660875053</v>
+        <v>259.8753965449882</v>
       </c>
       <c r="AD4" t="n">
-        <v>179445.824517904</v>
+        <v>209973.0334965028</v>
       </c>
       <c r="AE4" t="n">
-        <v>245525.6936963371</v>
+        <v>287294.3677862453</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.961013585227688e-06</v>
+        <v>5.094368227912582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>222093.0660875053</v>
+        <v>259875.3965449882</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.0279825368034</v>
+        <v>205.6454676422956</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.7985662275085</v>
+        <v>281.3732012657907</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.2486679770981</v>
+        <v>254.5193378468345</v>
       </c>
       <c r="AD5" t="n">
-        <v>165027.9825368034</v>
+        <v>205645.4676422956</v>
       </c>
       <c r="AE5" t="n">
-        <v>225798.5662275085</v>
+        <v>281373.2012657907</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00214849529431e-06</v>
+        <v>5.165140067645743e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.917438271604938</v>
       </c>
       <c r="AH5" t="n">
-        <v>204248.6679770981</v>
+        <v>254519.3378468345</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3540984416038</v>
+        <v>179.7387490272678</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8798900579605</v>
+        <v>245.9264859329658</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8990724805639</v>
+        <v>222.4556072755857</v>
       </c>
       <c r="AD2" t="n">
-        <v>145354.0984416038</v>
+        <v>179738.7490272678</v>
       </c>
       <c r="AE2" t="n">
-        <v>198879.8900579605</v>
+        <v>245926.4859329658</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.086766524691657e-06</v>
+        <v>6.187918543883576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.051697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>179899.0724805639</v>
+        <v>222455.6072755857</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0377201912917</v>
+        <v>281.0236380582977</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.4842455473164</v>
+        <v>384.5089394792762</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.1839947443119</v>
+        <v>347.8119459570592</v>
       </c>
       <c r="AD2" t="n">
-        <v>232037.7201912917</v>
+        <v>281023.6380582977</v>
       </c>
       <c r="AE2" t="n">
-        <v>317484.2455473164</v>
+        <v>384508.9394792762</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.421029448141016e-06</v>
+        <v>4.287823051850529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>287183.9947443118</v>
+        <v>347811.9459570592</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.2378315271736</v>
+        <v>197.6806762686692</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.1904232246741</v>
+        <v>270.4754223266044</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.2213723064657</v>
+        <v>244.6616276344719</v>
       </c>
       <c r="AD3" t="n">
-        <v>168237.8315271736</v>
+        <v>197680.6762686692</v>
       </c>
       <c r="AE3" t="n">
-        <v>230190.4232246741</v>
+        <v>270475.4223266044</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.038279725005158e-06</v>
+        <v>5.381019158131443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.106481481481483</v>
       </c>
       <c r="AH3" t="n">
-        <v>208221.3723064657</v>
+        <v>244661.6276344719</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.1229617059886</v>
+        <v>193.2946278286763</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.8778356312303</v>
+        <v>264.4742373522085</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.751950967547</v>
+        <v>239.2331873313144</v>
       </c>
       <c r="AD4" t="n">
-        <v>154122.9617059887</v>
+        <v>193294.6278286763</v>
       </c>
       <c r="AE4" t="n">
-        <v>210877.8356312303</v>
+        <v>264474.2373522085</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09671894592165e-06</v>
+        <v>5.484519360811888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.975308641975308</v>
       </c>
       <c r="AH4" t="n">
-        <v>190751.950967547</v>
+        <v>239233.1873313144</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1499001135816</v>
+        <v>321.1608585827097</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9992556247403</v>
+        <v>439.4264553299744</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5916073686399</v>
+        <v>397.4882111721844</v>
       </c>
       <c r="AD2" t="n">
-        <v>271149.9001135816</v>
+        <v>321160.8585827097</v>
       </c>
       <c r="AE2" t="n">
-        <v>370999.2556247403</v>
+        <v>439426.4553299744</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223878895327787e-06</v>
+        <v>3.878250606115932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.513888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>335591.6073686399</v>
+        <v>397488.2111721844</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.391835220043</v>
+        <v>225.2300097947528</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.6612878584782</v>
+        <v>308.1696358477904</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.4522105611924</v>
+        <v>278.7583583213689</v>
       </c>
       <c r="AD3" t="n">
-        <v>185391.835220043</v>
+        <v>225230.0097947528</v>
       </c>
       <c r="AE3" t="n">
-        <v>253661.2878584782</v>
+        <v>308169.6358477904</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.865901346464886e-06</v>
+        <v>4.997881700009418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>229452.2105611924</v>
+        <v>278758.3583213689</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.7410782742676</v>
+        <v>199.664504194998</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.564790573756</v>
+        <v>273.1897832157174</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.7052737190696</v>
+        <v>247.1169337299582</v>
       </c>
       <c r="AD4" t="n">
-        <v>159741.0782742676</v>
+        <v>199664.504194998</v>
       </c>
       <c r="AE4" t="n">
-        <v>218564.790573756</v>
+        <v>273189.7832157174</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.046288484837509e-06</v>
+        <v>5.312461118069874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>197705.2737190696</v>
+        <v>247116.9337299583</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.1833145879695</v>
+        <v>200.1067405086999</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.1698778082519</v>
+        <v>273.7948704502133</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.2526122771506</v>
+        <v>247.6642722880393</v>
       </c>
       <c r="AD5" t="n">
-        <v>160183.3145879695</v>
+        <v>200106.7405086999</v>
       </c>
       <c r="AE5" t="n">
-        <v>219169.8778082519</v>
+        <v>273794.8704502133</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.04530126425657e-06</v>
+        <v>5.310739491580032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.948302469135803</v>
       </c>
       <c r="AH5" t="n">
-        <v>198252.6122771506</v>
+        <v>247664.2722880393</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.6627538773989</v>
+        <v>413.6019649659233</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.1604941208172</v>
+        <v>565.9084552972748</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.2392118749205</v>
+        <v>511.8989465812076</v>
       </c>
       <c r="AD2" t="n">
-        <v>351662.7538773988</v>
+        <v>413601.9649659233</v>
       </c>
       <c r="AE2" t="n">
-        <v>481160.4941208172</v>
+        <v>565908.4552972749</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874119141519799e-06</v>
+        <v>3.185878330753585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>435239.2118749205</v>
+        <v>511898.9465812076</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.1351410710781</v>
+        <v>271.6515859811844</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.1986116903175</v>
+        <v>371.685684361613</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.452638925589</v>
+        <v>336.2125243102741</v>
       </c>
       <c r="AD3" t="n">
-        <v>220135.1410710781</v>
+        <v>271651.5859811844</v>
       </c>
       <c r="AE3" t="n">
-        <v>301198.6116903175</v>
+        <v>371685.6843616129</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560516203520412e-06</v>
+        <v>4.352707844242964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.974537037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>272452.638925589</v>
+        <v>336212.5243102742</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.0087061740121</v>
+        <v>225.0210716541108</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.4512708472097</v>
+        <v>307.8837574660639</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.1169741208281</v>
+        <v>278.4997637711614</v>
       </c>
       <c r="AD4" t="n">
-        <v>194008.7061740121</v>
+        <v>225021.0716541108</v>
       </c>
       <c r="AE4" t="n">
-        <v>265451.2708472097</v>
+        <v>307883.7574660639</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82960121556338e-06</v>
+        <v>4.810134530735831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.218364197530865</v>
       </c>
       <c r="AH4" t="n">
-        <v>240116.9741208281</v>
+        <v>278499.7637711614</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.1434754734836</v>
+        <v>212.4078359143088</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.1660534599772</v>
+        <v>290.6257718701874</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.8175739719448</v>
+        <v>262.888856098815</v>
       </c>
       <c r="AD5" t="n">
-        <v>171143.4754734836</v>
+        <v>212407.8359143088</v>
       </c>
       <c r="AE5" t="n">
-        <v>234166.0534599772</v>
+        <v>290625.7718701874</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.946224131465535e-06</v>
+        <v>5.00838575842495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>211817.5739719448</v>
+        <v>262888.856098815</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.9873662488789</v>
+        <v>212.2517266897041</v>
       </c>
       <c r="AB6" t="n">
-        <v>233.9524579318202</v>
+        <v>290.4121763420304</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.6243637012119</v>
+        <v>262.695645828082</v>
       </c>
       <c r="AD6" t="n">
-        <v>170987.3662488789</v>
+        <v>212251.7266897041</v>
       </c>
       <c r="AE6" t="n">
-        <v>233952.4579318202</v>
+        <v>290412.1763420304</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.957394097536963e-06</v>
+        <v>5.027373960441473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.905864197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>211624.3637012119</v>
+        <v>262695.6458280821</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.4919897597495</v>
+        <v>242.8393238583444</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.7949619390394</v>
+        <v>332.2634762176922</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.091723466355</v>
+        <v>300.5527163822922</v>
       </c>
       <c r="AD2" t="n">
-        <v>204491.9897597495</v>
+        <v>242839.3238583444</v>
       </c>
       <c r="AE2" t="n">
-        <v>279794.9619390393</v>
+        <v>332263.4762176922</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649416724157547e-06</v>
+        <v>4.777525311477235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.341049382716051</v>
       </c>
       <c r="AH2" t="n">
-        <v>253091.723466355</v>
+        <v>300552.7163822922</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.0952129421517</v>
+        <v>186.9197415341644</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.3128450159023</v>
+        <v>255.7518366839273</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.6682506846313</v>
+        <v>231.343240340845</v>
       </c>
       <c r="AD3" t="n">
-        <v>158095.2129421517</v>
+        <v>186919.7415341644</v>
       </c>
       <c r="AE3" t="n">
-        <v>216312.8450159023</v>
+        <v>255751.8366839273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.133529034079593e-06</v>
+        <v>5.65049436657585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.05246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>195668.2506846313</v>
+        <v>231343.240340845</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.0387140835889</v>
+        <v>186.8632426756015</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.2355407850629</v>
+        <v>255.6745324530879</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.598324261086</v>
+        <v>231.2733139172997</v>
       </c>
       <c r="AD4" t="n">
-        <v>158038.7140835889</v>
+        <v>186863.2426756015</v>
       </c>
       <c r="AE4" t="n">
-        <v>216235.5407850629</v>
+        <v>255674.5324530879</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144410536372884e-06</v>
+        <v>5.670116290208731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.025462962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>195598.3242610861</v>
+        <v>231273.3139172997</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.822252316632</v>
+        <v>192.8291343145364</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.2028800121221</v>
+        <v>263.8373285900381</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.8550963759475</v>
+        <v>238.6570642474984</v>
       </c>
       <c r="AD2" t="n">
-        <v>155822.252316632</v>
+        <v>192829.1343145364</v>
       </c>
       <c r="AE2" t="n">
-        <v>213202.880012122</v>
+        <v>263837.3285900381</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.067228894620885e-06</v>
+        <v>5.722468699920959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.503858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>192855.0963759475</v>
+        <v>238657.0642474984</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.7985318608463</v>
+        <v>176.5537828678257</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.5927158198436</v>
+        <v>241.568674722829</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.1621127662269</v>
+        <v>218.5136994511166</v>
       </c>
       <c r="AD3" t="n">
-        <v>148798.5318608463</v>
+        <v>176553.7828678257</v>
       </c>
       <c r="AE3" t="n">
-        <v>203592.7158198436</v>
+        <v>241568.674722829</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.190003957155015e-06</v>
+        <v>5.951527722452514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.214506172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>184162.1127662269</v>
+        <v>218513.6994511166</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5572783507254</v>
+        <v>178.2539767361035</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.0531574226284</v>
+        <v>243.8949549806652</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.4375578370937</v>
+        <v>220.6179627861005</v>
       </c>
       <c r="AD2" t="n">
-        <v>142557.2783507254</v>
+        <v>178253.9767361035</v>
       </c>
       <c r="AE2" t="n">
-        <v>195053.1574226284</v>
+        <v>243894.9549806652</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178831511862834e-06</v>
+        <v>6.113010879853139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.488425925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>176437.5578370937</v>
+        <v>220617.9627861005</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.3211726654187</v>
+        <v>179.0178710507969</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.09835132463</v>
+        <v>244.9401488826669</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.3829999000275</v>
+        <v>221.5634048490343</v>
       </c>
       <c r="AD3" t="n">
-        <v>143321.1726654187</v>
+        <v>179017.8710507968</v>
       </c>
       <c r="AE3" t="n">
-        <v>196098.35132463</v>
+        <v>244940.1488826669</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176980124843695e-06</v>
+        <v>6.109450593959224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.492283950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>177382.9999000275</v>
+        <v>221563.4048490343</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.0388756188204</v>
+        <v>184.9638685147613</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7121000514076</v>
+        <v>253.0757249317536</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0336119062142</v>
+        <v>228.9225329383515</v>
       </c>
       <c r="AD2" t="n">
-        <v>143038.8756188204</v>
+        <v>184963.8685147613</v>
       </c>
       <c r="AE2" t="n">
-        <v>195712.1000514076</v>
+        <v>253075.7249317536</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.942303471771153e-06</v>
+        <v>6.068793144118421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.684413580246915</v>
       </c>
       <c r="AH2" t="n">
-        <v>177033.6119062142</v>
+        <v>228922.5329383515</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.1019774927294</v>
+        <v>296.7429708820332</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.7782681441179</v>
+        <v>406.0168241367313</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.2050439564486</v>
+        <v>367.2671482893125</v>
       </c>
       <c r="AD2" t="n">
-        <v>257101.9774927294</v>
+        <v>296742.9708820332</v>
       </c>
       <c r="AE2" t="n">
-        <v>351778.2681441179</v>
+        <v>406016.8241367313</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.313437618713998e-06</v>
+        <v>4.064618636112152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>318205.0439564486</v>
+        <v>367267.1482893125</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.5571571761918</v>
+        <v>217.0274688563486</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.9415357172852</v>
+        <v>296.9465574653047</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.7555365190849</v>
+        <v>268.6063947880146</v>
       </c>
       <c r="AD3" t="n">
-        <v>177557.1571761918</v>
+        <v>217027.4688563486</v>
       </c>
       <c r="AE3" t="n">
-        <v>242941.5357172852</v>
+        <v>296946.5574653047</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.938438017429399e-06</v>
+        <v>5.162719681779555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.272376543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>219755.5365190849</v>
+        <v>268606.3947880146</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.5805811811417</v>
+        <v>196.1361442073191</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.240459019652</v>
+        <v>268.3621254203208</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.7936502992505</v>
+        <v>242.7500208188925</v>
       </c>
       <c r="AD4" t="n">
-        <v>156580.5811811417</v>
+        <v>196136.1442073191</v>
       </c>
       <c r="AE4" t="n">
-        <v>214240.459019652</v>
+        <v>268362.1254203208</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075812916730489e-06</v>
+        <v>5.404081960717349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.948302469135803</v>
       </c>
       <c r="AH4" t="n">
-        <v>193793.6502992505</v>
+        <v>242750.0208188925</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.8075391228512</v>
+        <v>384.1824138395006</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.3619574602781</v>
+        <v>525.6553275471086</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.9028513447896</v>
+        <v>475.4875208478977</v>
       </c>
       <c r="AD2" t="n">
-        <v>332807.5391228512</v>
+        <v>384182.4138395006</v>
       </c>
       <c r="AE2" t="n">
-        <v>455361.9574602781</v>
+        <v>525655.3275471086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954882938888692e-06</v>
+        <v>3.342631968661989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53626543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>411902.8513447896</v>
+        <v>475487.5208478977</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.733436675136</v>
+        <v>252.7650637647978</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.703029078757</v>
+        <v>345.8443114504346</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.0541785843208</v>
+        <v>312.837415761248</v>
       </c>
       <c r="AD3" t="n">
-        <v>211733.436675136</v>
+        <v>252765.0637647978</v>
       </c>
       <c r="AE3" t="n">
-        <v>289703.029078757</v>
+        <v>345844.3114504346</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626705473057195e-06</v>
+        <v>4.491373632577555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.839506172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>262054.1785843208</v>
+        <v>312837.415761248</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.0262220737469</v>
+        <v>217.8000318995442</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.8975280557738</v>
+        <v>298.0036123040803</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.4750271326417</v>
+        <v>269.5625657965636</v>
       </c>
       <c r="AD4" t="n">
-        <v>187026.2220737468</v>
+        <v>217800.0318995442</v>
       </c>
       <c r="AE4" t="n">
-        <v>255897.5280557738</v>
+        <v>298003.6123040803</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.888473922728444e-06</v>
+        <v>4.938968509412287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>231475.0271326417</v>
+        <v>269562.5657965636</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.183093386986</v>
+        <v>209.1293796220761</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.1155280863932</v>
+        <v>286.140043335873</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.1536250550663</v>
+        <v>258.8312392000547</v>
       </c>
       <c r="AD5" t="n">
-        <v>168183.093386986</v>
+        <v>209129.3796220761</v>
       </c>
       <c r="AE5" t="n">
-        <v>230115.5280863932</v>
+        <v>286140.0433358731</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.975587729796852e-06</v>
+        <v>5.087923411327924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>208153.6250550663</v>
+        <v>258831.2392000546</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3477312746935</v>
+        <v>198.9521222624086</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6583517388084</v>
+        <v>272.2150708274763</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.9807827308251</v>
+        <v>246.2352465240332</v>
       </c>
       <c r="AD2" t="n">
-        <v>158347.7312746935</v>
+        <v>198952.1222624086</v>
       </c>
       <c r="AE2" t="n">
-        <v>216658.3517388084</v>
+        <v>272215.0708274763</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.627549964191387e-06</v>
+        <v>5.632049797712551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>195980.7827308251</v>
+        <v>246235.2465240332</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.494973916819</v>
+        <v>206.0079498171361</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.5422567865083</v>
+        <v>281.8691653689921</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.53962736696</v>
+        <v>254.9679678321166</v>
       </c>
       <c r="AD2" t="n">
-        <v>168494.973916819</v>
+        <v>206007.949817136</v>
       </c>
       <c r="AE2" t="n">
-        <v>230542.2567865083</v>
+        <v>281869.1653689921</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.916409331835116e-06</v>
+        <v>5.373287438654014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>208539.62736696</v>
+        <v>254967.9678321166</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9249730698164</v>
+        <v>180.0597945036052</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.8704506108059</v>
+        <v>246.3657545172172</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0315865525796</v>
+        <v>222.8529526826736</v>
       </c>
       <c r="AD3" t="n">
-        <v>151924.9730698164</v>
+        <v>180059.7945036052</v>
       </c>
       <c r="AE3" t="n">
-        <v>207870.4506108059</v>
+        <v>246365.7545172172</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176839764620085e-06</v>
+        <v>5.853112941148264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.141203703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>188031.5865525796</v>
+        <v>222852.9526826736</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.9961155361537</v>
+        <v>266.4795958860967</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.2719025862889</v>
+        <v>364.6091393414146</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.805250830786</v>
+        <v>329.8113548148102</v>
       </c>
       <c r="AD2" t="n">
-        <v>217996.1155361537</v>
+        <v>266479.5958860966</v>
       </c>
       <c r="AE2" t="n">
-        <v>298271.9025862889</v>
+        <v>364609.1393414146</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.53183811653633e-06</v>
+        <v>4.522944025999716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.626543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>269805.250830786</v>
+        <v>329811.3548148102</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5467122452287</v>
+        <v>190.6880944764866</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.0353386317726</v>
+        <v>260.9078634276085</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9400361378658</v>
+        <v>236.0071831286399</v>
       </c>
       <c r="AD3" t="n">
-        <v>161546.7122452288</v>
+        <v>190688.0944764866</v>
       </c>
       <c r="AE3" t="n">
-        <v>221035.3386317726</v>
+        <v>260907.8634276085</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.11034829692437e-06</v>
+        <v>5.55641024458469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.021604938271604</v>
       </c>
       <c r="AH3" t="n">
-        <v>199940.0361378658</v>
+        <v>236007.1831286399</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.2124055912697</v>
+        <v>189.9821217003071</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.8954843504003</v>
+        <v>259.9419203299194</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.1496697036931</v>
+        <v>235.1334282844843</v>
       </c>
       <c r="AD4" t="n">
-        <v>151212.4055912697</v>
+        <v>189982.1217003071</v>
       </c>
       <c r="AE4" t="n">
-        <v>206895.4843504003</v>
+        <v>259941.9203299194</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.123422932641975e-06</v>
+        <v>5.579767127129757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.990740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>187149.6697036931</v>
+        <v>235133.4282844843</v>
       </c>
     </row>
   </sheetData>
